--- a/data/trans_camb/P42C_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Dificultad-trans_camb.xlsx
@@ -572,7 +572,7 @@
         <v>-10.79865007774648</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-6.921152386906612</v>
+        <v>-6.921152386906609</v>
       </c>
     </row>
     <row r="5">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.7499538427564</v>
+        <v>-14.01007547712329</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.89559557119478</v>
+        <v>-10.79262613335726</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-7.63364073260311</v>
+        <v>-7.403413687544022</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.957265109237772</v>
+        <v>-2.821039503834236</v>
       </c>
     </row>
     <row r="7">
@@ -614,7 +614,7 @@
         <v>-0.6294768043594291</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.4034490288719298</v>
+        <v>-0.4034490288719297</v>
       </c>
     </row>
     <row r="8">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7195161260245816</v>
+        <v>-0.7249409521273281</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5705143474601072</v>
+        <v>-0.5725969302620214</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.4978578786216415</v>
+        <v>-0.4900863678709424</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1788148661091286</v>
+        <v>-0.1612129786776884</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.81014269518934</v>
+        <v>-10.89238685107711</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.65432996309717</v>
+        <v>-10.94510092932568</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.835026153821932</v>
+        <v>-2.489837239757899</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.698780223178537</v>
+        <v>-2.398387912145508</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4278381886348058</v>
+        <v>-0.4443714642370491</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4335990079041252</v>
+        <v>-0.4391407449860929</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1358252916110775</v>
+        <v>-0.1274583994870991</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1346039065092867</v>
+        <v>-0.1157181591250318</v>
       </c>
     </row>
     <row r="16">
@@ -748,7 +748,7 @@
         <v>-8.009398149207891</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-1.234872285116639</v>
+        <v>-1.234872285116634</v>
       </c>
     </row>
     <row r="17">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-12.5067273537609</v>
+        <v>-12.67786699979299</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.990293195942951</v>
+        <v>-5.375892464827199</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.286613676875147</v>
+        <v>-3.532240453738979</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.287448319892233</v>
+        <v>3.595103424164589</v>
       </c>
     </row>
     <row r="19">
@@ -790,7 +790,7 @@
         <v>-0.2986653853844446</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.04604760558337402</v>
+        <v>-0.04604760558337381</v>
       </c>
     </row>
     <row r="20">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4312933999495981</v>
+        <v>-0.4410030652698009</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2017592603405109</v>
+        <v>-0.1838942483752356</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1327590096903771</v>
+        <v>-0.1476774270354959</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1374907433281925</v>
+        <v>0.149685756458357</v>
       </c>
     </row>
     <row r="22">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.80134866112808</v>
+        <v>-12.85461940573764</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.871951779109446</v>
+        <v>-2.78908082349329</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.885442536383359</v>
+        <v>2.907021151964588</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.13136383296037</v>
+        <v>9.987755210903829</v>
       </c>
     </row>
     <row r="25">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3059425233887201</v>
+        <v>-0.3028536314237978</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07001611651839566</v>
+        <v>-0.06688174213479993</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.06079353780006709</v>
+        <v>0.09250877341773378</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3039069858692844</v>
+        <v>0.2919843090220645</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-8.50736442213241</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.3972481208559198</v>
+        <v>0.3972481208559142</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-10.68920634073098</v>
+        <v>-10.84142649999522</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.703986844309543</v>
+        <v>-2.016563511695222</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-6.328044478209284</v>
+        <v>-6.391367820171344</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.914429009814688</v>
+        <v>2.791907077401064</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>-0.3551552270182131</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.01658383719617117</v>
+        <v>0.01658383719617094</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4237093942799197</v>
+        <v>-0.4355070691986362</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.07040474136027031</v>
+        <v>-0.07946640107827949</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2766893964361188</v>
+        <v>-0.2798181407112739</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1284899671457672</v>
+        <v>0.1259771843487242</v>
       </c>
     </row>
     <row r="34">
